--- a/luma_input.xlsx
+++ b/luma_input.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="create_account" sheetId="1" r:id="rId1"/>
     <sheet name="items" sheetId="2" r:id="rId2"/>
     <sheet name="login" sheetId="3" r:id="rId3"/>
+    <sheet name="watch" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Password</t>
   </si>
@@ -72,9 +73,6 @@
     <t>Usertype</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>AddressType</t>
   </si>
   <si>
@@ -106,6 +104,12 @@
   </si>
   <si>
     <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Existing</t>
+  </si>
+  <si>
+    <t>Didi Sport Watch</t>
   </si>
 </sst>
 </file>
@@ -516,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -548,25 +552,25 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -586,22 +590,22 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
       </c>
       <c r="L2">
         <v>560012</v>
@@ -668,4 +672,83 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>560012</v>
+      </c>
+      <c r="I2">
+        <v>9876543210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>